--- a/src/main/resources/poi/report_purchase_trackingGetOut.xlsx
+++ b/src/main/resources/poi/report_purchase_trackingGetOut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A433FBD-7343-4D95-A2E3-CF16EAF45FC7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B18BE30-581F-410F-9ACF-494B5780C8B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -247,7 +247,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -260,6 +260,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -571,8 +577,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Q3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="F15" activeCellId="1" sqref="A1:XFD1 F15"/>
+    <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2:Q3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -614,31 +620,31 @@
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="1" t="s">
+      <c r="I2" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="1" t="s">
+      <c r="J2" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="1" t="s">
+      <c r="K2" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="1" t="s">
+      <c r="P2" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="1" t="s">
+      <c r="Q2" s="5" t="s">
         <v>24</v>
       </c>
     </row>
@@ -667,31 +673,31 @@
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="2" t="s">
+      <c r="J3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="2" t="s">
+      <c r="K3" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="2" t="s">
+      <c r="L3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="2" t="s">
+      <c r="M3" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="2" t="s">
+      <c r="N3" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="2" t="s">
+      <c r="O3" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="2" t="s">
+      <c r="P3" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="2" t="s">
+      <c r="Q3" s="6" t="s">
         <v>33</v>
       </c>
     </row>

--- a/src/main/resources/poi/report_purchase_trackingGetOut.xlsx
+++ b/src/main/resources/poi/report_purchase_trackingGetOut.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_report3.0\xinsoft-gyhl\src\main\resources\poi\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B18BE30-581F-410F-9ACF-494B5780C8B1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0A79E87-D683-4E2D-A44D-F73B4F707269}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -163,8 +163,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>&lt;% Page Language="C#" EnableEventValidation = "false" AutoEventWireup="true"
- CodeFile="ExportGridView.aspx.cs" Inherits="ExportGridView" %&gt;</t>
+    <t>&lt;% Page Language="C#" EnableEventValidation = "false" AutoEventWireup="true" CodeFile="ExportGridView.aspx.cs" Inherits="ExportGridView" %&gt;</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -247,7 +246,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -255,17 +254,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -578,7 +574,7 @@
   <dimension ref="A1:Q3"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G2" workbookViewId="0">
-      <selection activeCell="I2" sqref="I2:Q3"/>
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -587,13 +583,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="3" t="s">
+      <c r="G1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="4"/>
-      <c r="C1" s="4"/>
-      <c r="D1" s="4"/>
-      <c r="E1" s="4"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="5"/>
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
@@ -620,31 +614,31 @@
       <c r="H2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I2" s="5" t="s">
+      <c r="I2" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="J2" s="5" t="s">
+      <c r="J2" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="K2" s="5" t="s">
+      <c r="K2" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="L2" s="5" t="s">
+      <c r="L2" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="M2" s="5" t="s">
+      <c r="M2" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="N2" s="5" t="s">
+      <c r="N2" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="O2" s="5" t="s">
+      <c r="O2" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="P2" s="5" t="s">
+      <c r="P2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="Q2" s="5" t="s">
+      <c r="Q2" s="3" t="s">
         <v>24</v>
       </c>
     </row>
@@ -673,37 +667,37 @@
       <c r="H3" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I3" s="6" t="s">
+      <c r="I3" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="6" t="s">
+      <c r="K3" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="M3" s="6" t="s">
+      <c r="M3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="N3" s="6" t="s">
+      <c r="N3" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="O3" s="6" t="s">
+      <c r="O3" s="4" t="s">
         <v>30</v>
       </c>
-      <c r="P3" s="6" t="s">
+      <c r="P3" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="Q3" s="6" t="s">
+      <c r="Q3" s="4" t="s">
         <v>33</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A1:E1"/>
+    <mergeCell ref="G1:I1"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
